--- a/data/trans_dic/P1806_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1806_2023-Habitat-trans_dic.xlsx
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 13,02</t>
+          <t>1,55; 12,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 5,9</t>
+          <t>0,86; 7,41</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,43</t>
+          <t>0,65; 2,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 4,27</t>
+          <t>2,01; 4,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 2,93</t>
+          <t>1,52; 3,02</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,29</t>
+          <t>0,69; 2,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 3,9</t>
+          <t>2,17; 3,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 2,79</t>
+          <t>1,64; 2,78</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,74</t>
+          <t>2,46; 5,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,83; 7,75</t>
+          <t>3,62; 7,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,16</t>
+          <t>3,79; 6,14</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,57; 4,91</t>
+          <t>2,55; 5,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,58; 9,22</t>
+          <t>6,65; 9,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,14; 7,01</t>
+          <t>5,16; 6,85</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,96; 3,1</t>
+          <t>1,96; 3,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,47; 5,83</t>
+          <t>4,5; 5,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">

--- a/data/trans_dic/P1806_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1806_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P1806_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1806_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 12,28</t>
+          <t>1,5; 13,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,41</t>
+          <t>0,77; 5,9</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,36</t>
+          <t>0,67; 2,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,2</t>
+          <t>2,03; 4,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,02</t>
+          <t>1,55; 2,93</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,25</t>
+          <t>0,72; 2,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 3,94</t>
+          <t>2,2; 3,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 2,78</t>
+          <t>1,62; 2,79</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,81</t>
+          <t>2,41; 5,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,62; 7,55</t>
+          <t>3,83; 7,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,79; 6,14</t>
+          <t>3,65; 6,16</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,55; 5,11</t>
+          <t>2,57; 4,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,65; 9,35</t>
+          <t>6,58; 9,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,16; 6,85</t>
+          <t>5,14; 7,01</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,96; 3,02</t>
+          <t>1,96; 3,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,5; 5,81</t>
+          <t>4,47; 5,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">

--- a/data/trans_dic/P1806_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1806_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,16%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>0,5; 1,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 13,02</t>
+          <t>2,21; 5,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 5,9</t>
+          <t>1,56; 3,03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>1,96%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,43</t>
+          <t>0,47; 1,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 4,27</t>
+          <t>2,26; 4,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 2,93</t>
+          <t>1,32; 2,64</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>4,41%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,29</t>
+          <t>2,35; 5,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 3,9</t>
+          <t>2,49; 7,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 2,79</t>
+          <t>2,79; 5,67</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>5,75%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,74</t>
+          <t>2,57; 4,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,83; 7,75</t>
+          <t>5,87; 8,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,16</t>
+          <t>4,87; 6,81</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>3,64%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,57; 4,91</t>
+          <t>1,77; 2,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,58; 9,22</t>
+          <t>4,02; 5,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,14; 7,01</t>
+          <t>3,09; 4,1</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,45%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,16%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,88%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,96; 3,1</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>4,47; 5,83</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3,45; 4,32</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P1806_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1806_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,86</t>
+          <t>0,53; 1,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,21; 5,02</t>
+          <t>2,3; 4,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 3,03</t>
+          <t>1,54; 3,04</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,95</t>
+          <t>0,49; 2,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,26; 4,0</t>
+          <t>2,29; 4,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,64</t>
+          <t>1,29; 2,6</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,74</t>
+          <t>2,39; 5,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 7,02</t>
+          <t>2,48; 7,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,67</t>
+          <t>2,76; 5,61</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 4,97</t>
+          <t>2,61; 5,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,87; 8,85</t>
+          <t>5,98; 9,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,87; 6,81</t>
+          <t>4,82; 6,72</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,98</t>
+          <t>1,74; 2,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,02; 5,63</t>
+          <t>3,98; 5,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,09; 4,1</t>
+          <t>3,15; 4,16</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población según si en los últimos 12 meses han visitado un podólogo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6804</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>21580</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>28384</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3367; 11835</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15517; 32695</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>20158; 39820</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13133</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>29130</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>42263</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5898; 24323</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>21963; 38846</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>27740; 55839</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>26117</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>46067</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>72184</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16825; 39554</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>23174; 65578</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>45226; 91820</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>33573</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>82619</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>116192</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>24223; 46323</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>65460; 98499</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>97465; 135787</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>79627</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>179396</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>259023</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>60157; 102574</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>145653; 205827</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>223998; 295999</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>